--- a/ex001.xlsx
+++ b/ex001.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="7530"/>
+    <workbookView windowWidth="28695" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>标准名</t>
   </si>
@@ -116,6 +117,87 @@
   </si>
   <si>
     <t>别名 10</t>
+  </si>
+  <si>
+    <t>标准字段</t>
+  </si>
+  <si>
+    <t>别名和规则</t>
+  </si>
+  <si>
+    <t>项目信息</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 项目编号</t>
+  </si>
+  <si>
+    <t>采购信息</t>
+  </si>
+  <si>
+    <t>采购代理</t>
+  </si>
+  <si>
+    <t>采购结果发布日期</t>
+  </si>
+  <si>
+    <t>资金来源</t>
+  </si>
+  <si>
+    <t>评标时间</t>
+  </si>
+  <si>
+    <t>评标信息</t>
+  </si>
+  <si>
+    <t>评标地点</t>
+  </si>
+  <si>
+    <t>评标专家</t>
+  </si>
+  <si>
+    <t>评价结果公示日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>第一中标人</t>
+  </si>
+  <si>
+    <t>中标信息</t>
+  </si>
+  <si>
+    <t>企业资质</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>企业业绩</t>
+  </si>
+  <si>
+    <t>谈判信息</t>
+  </si>
+  <si>
+    <t>谈判编号</t>
+  </si>
+  <si>
+    <t>谈判时间</t>
+  </si>
+  <si>
+    <t>谈判地点</t>
+  </si>
+  <si>
+    <t>谈判结果发布日期</t>
   </si>
 </sst>
 </file>
@@ -123,15 +205,98 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,7 +317,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,31 +400,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +419,28 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,88 +453,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,192 +469,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -498,11 +663,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +731,62 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -528,16 +800,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,9 +831,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,179 +887,350 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,7 +1550,7 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1087,28 +1565,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1116,28 +1594,28 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1145,22 +1623,22 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="64" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1168,16 +1646,16 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="64" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1185,10 +1663,10 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="64" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1196,7 +1674,7 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="64" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1204,7 +1682,7 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="64" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1212,7 +1690,7 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="64" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1235,4 +1713,553 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14"/>
+      <c r="B10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14"/>
+      <c r="B16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="24"/>
+      <c r="B20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="60"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="31"/>
+      <c r="B22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="37"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="34"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="41"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="41"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:A32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>